--- a/src/test/resources/amazon.xlsx
+++ b/src/test/resources/amazon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nitika Vaidya\IdeaProjects\cucumber\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C092998-045E-43F0-A52B-E7E7E8C9504A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAD0F1C-2B1E-42A3-9EFA-F61C24746BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4236" yWindow="1776" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2088" yWindow="6132" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,28 +39,23 @@
     <t xml:space="preserve">User can access security </t>
   </si>
   <si>
-    <t>Typevalue</t>
-  </si>
-  <si>
     <t>scenario</t>
+  </si>
+  <si>
+    <t>TypeValue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFA9B7C6"/>
-      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,11 +78,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,53 +360,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" customWidth="1"/>
+    <col min="1" max="1" width="35.21875" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>9424624521</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>9424624521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>9424624521</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>9424624521</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
         <v>9424624521</v>
       </c>
     </row>

--- a/src/test/resources/amazon.xlsx
+++ b/src/test/resources/amazon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nitika Vaidya\IdeaProjects\cucumber\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAD0F1C-2B1E-42A3-9EFA-F61C24746BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EF18B2-8F33-4715-B6B7-6AB55A8A2C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2088" yWindow="6132" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2088" yWindow="3516" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Verify that only valid user can login</t>
   </si>
@@ -39,20 +39,31 @@
     <t xml:space="preserve">User can access security </t>
   </si>
   <si>
+    <t>TypeValue</t>
+  </si>
+  <si>
+    <t>nitikav0706@gmail.com</t>
+  </si>
+  <si>
     <t>scenario</t>
-  </si>
-  <si>
-    <t>TypeValue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -75,13 +86,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -363,57 +377,63 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.21875" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>9424624521</v>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>9424624521</v>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>9424624521</v>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>9424624521</v>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{B039742D-5B0C-448C-AE3A-632AB05DEB59}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{2C47B7C2-588A-4EEE-8517-207631F58AF3}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{DEE568DE-5B53-4B74-949F-EBA4A5C0D804}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{9F1EFF87-26AC-4B33-8A9D-37D9851AF281}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>